--- a/out/CE/falselink/Figori_algorithm_12.xlsx
+++ b/out/CE/falselink/Figori_algorithm_12.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.88160000000000005</v>
+        <v>0.86739999999999995</v>
       </c>
       <c r="B1">
-        <v>0.86839999999999995</v>
+        <v>0.85670000000000002</v>
       </c>
       <c r="C1">
-        <v>0.87244999999999995</v>
+        <v>0.86450000000000005</v>
       </c>
       <c r="D1">
-        <v>0.86385000000000001</v>
+        <v>0.87319999999999998</v>
       </c>
       <c r="E1">
-        <v>0.87685000000000002</v>
+        <v>0.81984999999999997</v>
       </c>
       <c r="F1">
-        <v>0.84375</v>
+        <v>0.87455000000000005</v>
       </c>
       <c r="G1">
-        <v>0.82620000000000005</v>
+        <v>0.86955000000000005</v>
       </c>
       <c r="H1">
-        <v>0.88719999999999999</v>
+        <v>0.87204999999999999</v>
       </c>
       <c r="I1">
-        <v>0.87309999999999999</v>
+        <v>0.86570000000000003</v>
       </c>
       <c r="J1">
-        <v>0.87744999999999995</v>
+        <v>0.86829999999999996</v>
       </c>
       <c r="K1">
-        <v>0.87609999999999999</v>
+        <v>0.85665000000000002</v>
       </c>
       <c r="L1">
-        <v>0.87734999999999996</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="M1">
-        <v>0.86745000000000005</v>
+        <v>0.84160000000000001</v>
       </c>
       <c r="N1">
-        <v>0.86734999999999995</v>
+        <v>0.87314999999999998</v>
       </c>
       <c r="O1">
-        <v>0.88865000000000005</v>
+        <v>0.87060000000000004</v>
       </c>
       <c r="P1">
-        <v>0.86140000000000005</v>
+        <v>0.89080000000000004</v>
       </c>
       <c r="Q1">
-        <v>0.84624999999999995</v>
+        <v>0.84335000000000004</v>
       </c>
       <c r="R1">
-        <v>0.87670000000000003</v>
+        <v>0.87585000000000002</v>
       </c>
       <c r="S1">
-        <v>0.88339999999999996</v>
+        <v>0.87004999999999999</v>
       </c>
       <c r="T1">
-        <v>0.86199999999999999</v>
+        <v>0.87355000000000005</v>
       </c>
       <c r="U1">
-        <v>0.85435000000000005</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="V1">
-        <v>0.87580000000000002</v>
+        <v>0.87955000000000005</v>
       </c>
       <c r="W1">
-        <v>0.85440000000000005</v>
+        <v>0.87714999999999999</v>
       </c>
       <c r="X1">
-        <v>0.84819999999999995</v>
+        <v>0.85445000000000004</v>
       </c>
       <c r="Y1">
-        <v>0.87250000000000005</v>
+        <v>0.85455000000000003</v>
       </c>
       <c r="Z1">
-        <v>0.86899999999999999</v>
+        <v>0.87614999999999998</v>
       </c>
       <c r="AA1">
-        <v>0.85299999999999998</v>
+        <v>0.84660000000000002</v>
       </c>
       <c r="AB1">
-        <v>0.84735000000000005</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="AC1">
-        <v>0.88495000000000001</v>
+        <v>0.872</v>
       </c>
       <c r="AD1">
-        <v>0.83699999999999997</v>
+        <v>0.85229999999999995</v>
       </c>
       <c r="AE1">
-        <v>0.83845000000000003</v>
+        <v>0.85919999999999996</v>
       </c>
       <c r="AF1">
-        <v>0.87824999999999998</v>
+        <v>0.86319999999999997</v>
       </c>
       <c r="AG1">
-        <v>0.87144999999999995</v>
+        <v>0.87109999999999999</v>
       </c>
       <c r="AH1">
-        <v>0.88805000000000001</v>
+        <v>0.85465000000000002</v>
       </c>
       <c r="AI1">
-        <v>0.87890000000000001</v>
+        <v>0.87280000000000002</v>
       </c>
       <c r="AJ1">
-        <v>0.87144999999999995</v>
+        <v>0.85894999999999999</v>
       </c>
       <c r="AK1">
-        <v>0.87</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="AL1">
-        <v>0.84219999999999995</v>
+        <v>0.85275000000000001</v>
       </c>
       <c r="AM1">
-        <v>0.88149999999999995</v>
+        <v>0.89534999999999998</v>
       </c>
       <c r="AN1">
-        <v>0.86575000000000002</v>
+        <v>0.87285000000000001</v>
       </c>
       <c r="AO1">
-        <v>0.88565000000000005</v>
+        <v>0.88765000000000005</v>
       </c>
       <c r="AP1">
-        <v>0.85694999999999999</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="AQ1">
-        <v>0.89185000000000003</v>
+        <v>0.88234999999999997</v>
       </c>
       <c r="AR1">
-        <v>0.86260000000000003</v>
+        <v>0.86539999999999995</v>
       </c>
       <c r="AS1">
-        <v>0.87744999999999995</v>
+        <v>0.88670000000000004</v>
       </c>
       <c r="AT1">
-        <v>0.88019999999999998</v>
+        <v>0.86595</v>
       </c>
       <c r="AU1">
-        <v>0.87705</v>
+        <v>0.86160000000000003</v>
       </c>
       <c r="AV1">
-        <v>0.88065000000000004</v>
+        <v>0.88365000000000005</v>
       </c>
       <c r="AW1">
-        <v>0.88365000000000005</v>
+        <v>0.8629</v>
       </c>
       <c r="AX1">
-        <v>0.86234999999999995</v>
+        <v>0.87624999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.87275000000000003</v>
+        <v>0.84860000000000002</v>
       </c>
       <c r="B2">
-        <v>0.85394999999999999</v>
+        <v>0.83914999999999995</v>
       </c>
       <c r="C2">
-        <v>0.87080000000000002</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="D2">
-        <v>0.83940000000000003</v>
+        <v>0.85270000000000001</v>
       </c>
       <c r="E2">
-        <v>0.86140000000000005</v>
+        <v>0.8175</v>
       </c>
       <c r="F2">
-        <v>0.84265000000000001</v>
+        <v>0.86724999999999997</v>
       </c>
       <c r="G2">
-        <v>0.82655000000000001</v>
+        <v>0.86034999999999995</v>
       </c>
       <c r="H2">
-        <v>0.86819999999999997</v>
+        <v>0.85514999999999997</v>
       </c>
       <c r="I2">
-        <v>0.85275000000000001</v>
+        <v>0.86324999999999996</v>
       </c>
       <c r="J2">
-        <v>0.86704999999999999</v>
+        <v>0.86165000000000003</v>
       </c>
       <c r="K2">
-        <v>0.87629999999999997</v>
+        <v>0.85824999999999996</v>
       </c>
       <c r="L2">
-        <v>0.87055000000000005</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="M2">
-        <v>0.85694999999999999</v>
+        <v>0.83565</v>
       </c>
       <c r="N2">
-        <v>0.85555000000000003</v>
+        <v>0.87339999999999995</v>
       </c>
       <c r="O2">
-        <v>0.87890000000000001</v>
+        <v>0.86944999999999995</v>
       </c>
       <c r="P2">
-        <v>0.84009999999999996</v>
+        <v>0.88034999999999997</v>
       </c>
       <c r="Q2">
-        <v>0.83284999999999998</v>
+        <v>0.83520000000000005</v>
       </c>
       <c r="R2">
-        <v>0.85919999999999996</v>
+        <v>0.87190000000000001</v>
       </c>
       <c r="S2">
         <v>0.86714999999999998</v>
       </c>
       <c r="T2">
-        <v>0.84514999999999996</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="U2">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="V2">
+        <v>0.86785000000000001</v>
+      </c>
+      <c r="W2">
+        <v>0.85904999999999998</v>
+      </c>
+      <c r="X2">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="Y2">
+        <v>0.84435000000000004</v>
+      </c>
+      <c r="Z2">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>0.83325000000000005</v>
+      </c>
+      <c r="AB2">
+        <v>0.84555000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="AD2">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="AE2">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="AF2">
+        <v>0.84694999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="AH2">
+        <v>0.84414999999999996</v>
+      </c>
+      <c r="AI2">
+        <v>0.86294999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.84225000000000005</v>
+      </c>
+      <c r="AK2">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="AM2">
+        <v>0.87965000000000004</v>
+      </c>
+      <c r="AN2">
+        <v>0.8821</v>
+      </c>
+      <c r="AO2">
+        <v>0.86324999999999996</v>
+      </c>
+      <c r="AP2">
+        <v>0.86075000000000002</v>
+      </c>
+      <c r="AQ2">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="AR2">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="AS2">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="AT2">
+        <v>0.84375</v>
+      </c>
+      <c r="AU2">
+        <v>0.84545000000000003</v>
+      </c>
+      <c r="AV2">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="AW2">
         <v>0.85250000000000004</v>
       </c>
-      <c r="V2">
-        <v>0.86080000000000001</v>
-      </c>
-      <c r="W2">
-        <v>0.84304999999999997</v>
-      </c>
-      <c r="X2">
-        <v>0.84325000000000006</v>
-      </c>
-      <c r="Y2">
-        <v>0.84784999999999999</v>
-      </c>
-      <c r="Z2">
-        <v>0.85594999999999999</v>
-      </c>
-      <c r="AA2">
-        <v>0.83830000000000005</v>
-      </c>
-      <c r="AB2">
-        <v>0.84014999999999995</v>
-      </c>
-      <c r="AC2">
-        <v>0.87260000000000004</v>
-      </c>
-      <c r="AD2">
-        <v>0.81815000000000004</v>
-      </c>
-      <c r="AE2">
-        <v>0.81569999999999998</v>
-      </c>
-      <c r="AF2">
-        <v>0.86845000000000006</v>
-      </c>
-      <c r="AG2">
-        <v>0.84830000000000005</v>
-      </c>
-      <c r="AH2">
-        <v>0.87585000000000002</v>
-      </c>
-      <c r="AI2">
-        <v>0.86904999999999999</v>
-      </c>
-      <c r="AJ2">
-        <v>0.86709999999999998</v>
-      </c>
-      <c r="AK2">
-        <v>0.85624999999999996</v>
-      </c>
-      <c r="AL2">
-        <v>0.82835000000000003</v>
-      </c>
-      <c r="AM2">
-        <v>0.86845000000000006</v>
-      </c>
-      <c r="AN2">
-        <v>0.86140000000000005</v>
-      </c>
-      <c r="AO2">
-        <v>0.87475000000000003</v>
-      </c>
-      <c r="AP2">
-        <v>0.85670000000000002</v>
-      </c>
-      <c r="AQ2">
-        <v>0.88039999999999996</v>
-      </c>
-      <c r="AR2">
-        <v>0.86339999999999995</v>
-      </c>
-      <c r="AS2">
-        <v>0.85809999999999997</v>
-      </c>
-      <c r="AT2">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="AU2">
-        <v>0.86055000000000004</v>
-      </c>
-      <c r="AV2">
-        <v>0.8609</v>
-      </c>
-      <c r="AW2">
-        <v>0.85765000000000002</v>
-      </c>
       <c r="AX2">
-        <v>0.84299999999999997</v>
+        <v>0.85589999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.85324999999999995</v>
+        <v>0.81559999999999999</v>
       </c>
       <c r="B3">
-        <v>0.82410000000000005</v>
+        <v>0.81235000000000002</v>
       </c>
       <c r="C3">
-        <v>0.8468</v>
+        <v>0.83460000000000001</v>
       </c>
       <c r="D3">
-        <v>0.8105</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="E3">
-        <v>0.84119999999999995</v>
+        <v>0.79444999999999999</v>
       </c>
       <c r="F3">
-        <v>0.79605000000000004</v>
+        <v>0.85355000000000003</v>
       </c>
       <c r="G3">
-        <v>0.79554999999999998</v>
+        <v>0.83284999999999998</v>
       </c>
       <c r="H3">
-        <v>0.8276</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="I3">
-        <v>0.82415000000000005</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="J3">
-        <v>0.85594999999999999</v>
+        <v>0.83835000000000004</v>
       </c>
       <c r="K3">
-        <v>0.84314999999999996</v>
+        <v>0.81964999999999999</v>
       </c>
       <c r="L3">
-        <v>0.84584999999999999</v>
+        <v>0.82930000000000004</v>
       </c>
       <c r="M3">
-        <v>0.84104999999999996</v>
+        <v>0.8004</v>
       </c>
       <c r="N3">
+        <v>0.83975</v>
+      </c>
+      <c r="O3">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="P3">
+        <v>0.8599</v>
+      </c>
+      <c r="Q3">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.85145000000000004</v>
+      </c>
+      <c r="S3">
+        <v>0.84724999999999995</v>
+      </c>
+      <c r="T3">
+        <v>0.8337</v>
+      </c>
+      <c r="U3">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="V3">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="W3">
+        <v>0.83445000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.83494999999999997</v>
+      </c>
+      <c r="Y3">
+        <v>0.81315000000000004</v>
+      </c>
+      <c r="Z3">
+        <v>0.84055000000000002</v>
+      </c>
+      <c r="AA3">
+        <v>0.81269999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>0.78915000000000002</v>
+      </c>
+      <c r="AE3">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="AF3">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>0.84</v>
+      </c>
+      <c r="AH3">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="AI3">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="AJ3">
+        <v>0.80405000000000004</v>
+      </c>
+      <c r="AK3">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="AL3">
+        <v>0.83904999999999996</v>
+      </c>
+      <c r="AM3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="AN3">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="AO3">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="AP3">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="AQ3">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="AR3">
+        <v>0.81315000000000004</v>
+      </c>
+      <c r="AS3">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="AT3">
         <v>0.81499999999999995</v>
       </c>
-      <c r="O3">
-        <v>0.86245000000000005</v>
-      </c>
-      <c r="P3">
-        <v>0.81630000000000003</v>
-      </c>
-      <c r="Q3">
-        <v>0.81940000000000002</v>
-      </c>
-      <c r="R3">
-        <v>0.84930000000000005</v>
-      </c>
-      <c r="S3">
-        <v>0.85009999999999997</v>
-      </c>
-      <c r="T3">
-        <v>0.81735000000000002</v>
-      </c>
-      <c r="U3">
-        <v>0.83104999999999996</v>
-      </c>
-      <c r="V3">
-        <v>0.82345000000000002</v>
-      </c>
-      <c r="W3">
-        <v>0.8145</v>
-      </c>
-      <c r="X3">
-        <v>0.82220000000000004</v>
-      </c>
-      <c r="Y3">
-        <v>0.81864999999999999</v>
-      </c>
-      <c r="Z3">
-        <v>0.82694999999999996</v>
-      </c>
-      <c r="AA3">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AB3">
-        <v>0.80315000000000003</v>
-      </c>
-      <c r="AC3">
-        <v>0.85204999999999997</v>
-      </c>
-      <c r="AD3">
-        <v>0.79720000000000002</v>
-      </c>
-      <c r="AE3">
-        <v>0.81284999999999996</v>
-      </c>
-      <c r="AF3">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="AG3">
-        <v>0.82094999999999996</v>
-      </c>
-      <c r="AH3">
-        <v>0.84704999999999997</v>
-      </c>
-      <c r="AI3">
-        <v>0.83220000000000005</v>
-      </c>
-      <c r="AJ3">
-        <v>0.84245000000000003</v>
-      </c>
-      <c r="AK3">
-        <v>0.84075</v>
-      </c>
-      <c r="AL3">
-        <v>0.81294999999999995</v>
-      </c>
-      <c r="AM3">
-        <v>0.83760000000000001</v>
-      </c>
-      <c r="AN3">
-        <v>0.8276</v>
-      </c>
-      <c r="AO3">
-        <v>0.8266</v>
-      </c>
-      <c r="AP3">
-        <v>0.82869999999999999</v>
-      </c>
-      <c r="AQ3">
-        <v>0.84775</v>
-      </c>
-      <c r="AR3">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="AS3">
-        <v>0.83984999999999999</v>
-      </c>
-      <c r="AT3">
-        <v>0.83355000000000001</v>
-      </c>
       <c r="AU3">
-        <v>0.83694999999999997</v>
+        <v>0.81189999999999996</v>
       </c>
       <c r="AV3">
-        <v>0.83930000000000005</v>
+        <v>0.85255000000000003</v>
       </c>
       <c r="AW3">
-        <v>0.83225000000000005</v>
+        <v>0.82604999999999995</v>
       </c>
       <c r="AX3">
-        <v>0.80359999999999998</v>
+        <v>0.82920000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.82499999999999996</v>
+        <v>0.78174999999999994</v>
       </c>
       <c r="B4">
-        <v>0.7802</v>
+        <v>0.76985000000000003</v>
       </c>
       <c r="C4">
-        <v>0.80925000000000002</v>
+        <v>0.77675000000000005</v>
       </c>
       <c r="D4">
-        <v>0.78259999999999996</v>
+        <v>0.80020000000000002</v>
       </c>
       <c r="E4">
-        <v>0.80145</v>
+        <v>0.74980000000000002</v>
       </c>
       <c r="F4">
-        <v>0.77149999999999996</v>
+        <v>0.80640000000000001</v>
       </c>
       <c r="G4">
-        <v>0.77885000000000004</v>
+        <v>0.77505000000000002</v>
       </c>
       <c r="H4">
-        <v>0.78259999999999996</v>
+        <v>0.79759999999999998</v>
       </c>
       <c r="I4">
-        <v>0.79449999999999998</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="J4">
-        <v>0.80620000000000003</v>
+        <v>0.79569999999999996</v>
       </c>
       <c r="K4">
-        <v>0.80635000000000001</v>
+        <v>0.79195000000000004</v>
       </c>
       <c r="L4">
-        <v>0.79105000000000003</v>
+        <v>0.7954</v>
       </c>
       <c r="M4">
-        <v>0.79920000000000002</v>
+        <v>0.77175000000000005</v>
       </c>
       <c r="N4">
+        <v>0.78274999999999995</v>
+      </c>
+      <c r="O4">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="P4">
+        <v>0.81364999999999998</v>
+      </c>
+      <c r="Q4">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="R4">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.79584999999999995</v>
+      </c>
+      <c r="T4">
+        <v>0.79135</v>
+      </c>
+      <c r="U4">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="V4">
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="W4">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="X4">
+        <v>0.79679999999999995</v>
+      </c>
+      <c r="Y4">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="Z4">
+        <v>0.79379999999999995</v>
+      </c>
+      <c r="AA4">
         <v>0.78064999999999996</v>
       </c>
-      <c r="O4">
-        <v>0.81969999999999998</v>
-      </c>
-      <c r="P4">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="Q4">
-        <v>0.79479999999999995</v>
-      </c>
-      <c r="R4">
-        <v>0.80295000000000005</v>
-      </c>
-      <c r="S4">
-        <v>0.81684999999999997</v>
-      </c>
-      <c r="T4">
-        <v>0.79415000000000002</v>
-      </c>
-      <c r="U4">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="V4">
-        <v>0.79179999999999995</v>
-      </c>
-      <c r="W4">
-        <v>0.76980000000000004</v>
-      </c>
-      <c r="X4">
-        <v>0.7782</v>
-      </c>
-      <c r="Y4">
-        <v>0.77264999999999995</v>
-      </c>
-      <c r="Z4">
-        <v>0.80115000000000003</v>
-      </c>
-      <c r="AA4">
-        <v>0.76685000000000003</v>
-      </c>
       <c r="AB4">
-        <v>0.76590000000000003</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="AC4">
-        <v>0.80325000000000002</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AD4">
-        <v>0.76270000000000004</v>
+        <v>0.75334999999999996</v>
       </c>
       <c r="AE4">
-        <v>0.77549999999999997</v>
+        <v>0.79825000000000002</v>
       </c>
       <c r="AF4">
-        <v>0.80515000000000003</v>
+        <v>0.78725000000000001</v>
       </c>
       <c r="AG4">
-        <v>0.80159999999999998</v>
+        <v>0.77159999999999995</v>
       </c>
       <c r="AH4">
-        <v>0.82230000000000003</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="AI4">
-        <v>0.79330000000000001</v>
+        <v>0.79930000000000001</v>
       </c>
       <c r="AJ4">
-        <v>0.79720000000000002</v>
+        <v>0.74739999999999995</v>
       </c>
       <c r="AK4">
-        <v>0.81694999999999995</v>
+        <v>0.78890000000000005</v>
       </c>
       <c r="AL4">
-        <v>0.78244999999999998</v>
+        <v>0.78859999999999997</v>
       </c>
       <c r="AM4">
-        <v>0.79720000000000002</v>
+        <v>0.82064999999999999</v>
       </c>
       <c r="AN4">
-        <v>0.78654999999999997</v>
+        <v>0.80354999999999999</v>
       </c>
       <c r="AO4">
-        <v>0.80530000000000002</v>
+        <v>0.81154999999999999</v>
       </c>
       <c r="AP4">
-        <v>0.78825000000000001</v>
+        <v>0.78325</v>
       </c>
       <c r="AQ4">
-        <v>0.81799999999999995</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="AR4">
-        <v>0.77815000000000001</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="AS4">
-        <v>0.77980000000000005</v>
+        <v>0.78410000000000002</v>
       </c>
       <c r="AT4">
-        <v>0.79035</v>
+        <v>0.75055000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.79059999999999997</v>
+        <v>0.76970000000000005</v>
       </c>
       <c r="AV4">
-        <v>0.80015000000000003</v>
+        <v>0.83240000000000003</v>
       </c>
       <c r="AW4">
-        <v>0.79259999999999997</v>
+        <v>0.77859999999999996</v>
       </c>
       <c r="AX4">
-        <v>0.77154999999999996</v>
+        <v>0.78634999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.78959999999999997</v>
+        <v>0.74544999999999995</v>
       </c>
       <c r="B5">
-        <v>0.71719999999999995</v>
+        <v>0.71555000000000002</v>
       </c>
       <c r="C5">
-        <v>0.76049999999999995</v>
+        <v>0.74619999999999997</v>
       </c>
       <c r="D5">
-        <v>0.73960000000000004</v>
+        <v>0.74490000000000001</v>
       </c>
       <c r="E5">
-        <v>0.74565000000000003</v>
+        <v>0.68789999999999996</v>
       </c>
       <c r="F5">
-        <v>0.73960000000000004</v>
+        <v>0.76990000000000003</v>
       </c>
       <c r="G5">
-        <v>0.69510000000000005</v>
+        <v>0.73209999999999997</v>
       </c>
       <c r="H5">
-        <v>0.73165000000000002</v>
+        <v>0.74304999999999999</v>
       </c>
       <c r="I5">
-        <v>0.74939999999999996</v>
+        <v>0.73109999999999997</v>
       </c>
       <c r="J5">
-        <v>0.73609999999999998</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="K5">
-        <v>0.74760000000000004</v>
+        <v>0.72740000000000005</v>
       </c>
       <c r="L5">
-        <v>0.76300000000000001</v>
+        <v>0.7379</v>
       </c>
       <c r="M5">
-        <v>0.74614999999999998</v>
+        <v>0.73024999999999995</v>
       </c>
       <c r="N5">
-        <v>0.74450000000000005</v>
+        <v>0.73350000000000004</v>
       </c>
       <c r="O5">
-        <v>0.77880000000000005</v>
+        <v>0.77569999999999995</v>
       </c>
       <c r="P5">
-        <v>0.71779999999999999</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="Q5">
-        <v>0.74839999999999995</v>
+        <v>0.74775000000000003</v>
       </c>
       <c r="R5">
-        <v>0.78200000000000003</v>
+        <v>0.75760000000000005</v>
       </c>
       <c r="S5">
-        <v>0.77164999999999995</v>
+        <v>0.74224999999999997</v>
       </c>
       <c r="T5">
-        <v>0.72494999999999998</v>
+        <v>0.76254999999999995</v>
       </c>
       <c r="U5">
-        <v>0.75700000000000001</v>
+        <v>0.76070000000000004</v>
       </c>
       <c r="V5">
-        <v>0.74019999999999997</v>
+        <v>0.72609999999999997</v>
       </c>
       <c r="W5">
-        <v>0.72084999999999999</v>
+        <v>0.75590000000000002</v>
       </c>
       <c r="X5">
-        <v>0.752</v>
+        <v>0.72985</v>
       </c>
       <c r="Y5">
-        <v>0.71704999999999997</v>
+        <v>0.72394999999999998</v>
       </c>
       <c r="Z5">
-        <v>0.75280000000000002</v>
+        <v>0.74919999999999998</v>
       </c>
       <c r="AA5">
-        <v>0.72155000000000002</v>
+        <v>0.73140000000000005</v>
       </c>
       <c r="AB5">
-        <v>0.72640000000000005</v>
+        <v>0.76670000000000005</v>
       </c>
       <c r="AC5">
-        <v>0.74880000000000002</v>
+        <v>0.76259999999999994</v>
       </c>
       <c r="AD5">
-        <v>0.73334999999999995</v>
+        <v>0.67490000000000006</v>
       </c>
       <c r="AE5">
-        <v>0.73050000000000004</v>
+        <v>0.74065000000000003</v>
       </c>
       <c r="AF5">
-        <v>0.75505</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="AG5">
-        <v>0.73109999999999997</v>
+        <v>0.71609999999999996</v>
       </c>
       <c r="AH5">
-        <v>0.76659999999999995</v>
+        <v>0.74824999999999997</v>
       </c>
       <c r="AI5">
-        <v>0.75249999999999995</v>
+        <v>0.73924999999999996</v>
       </c>
       <c r="AJ5">
-        <v>0.75600000000000001</v>
+        <v>0.70874999999999999</v>
       </c>
       <c r="AK5">
-        <v>0.76090000000000002</v>
+        <v>0.75160000000000005</v>
       </c>
       <c r="AL5">
-        <v>0.72519999999999996</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="AM5">
-        <v>0.74350000000000005</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="AN5">
-        <v>0.76790000000000003</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="AO5">
-        <v>0.75139999999999996</v>
+        <v>0.73480000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.73975000000000002</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="AQ5">
-        <v>0.76839999999999997</v>
+        <v>0.75455000000000005</v>
       </c>
       <c r="AR5">
-        <v>0.73545000000000005</v>
+        <v>0.72350000000000003</v>
       </c>
       <c r="AS5">
-        <v>0.73580000000000001</v>
+        <v>0.74060000000000004</v>
       </c>
       <c r="AT5">
-        <v>0.73324999999999996</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="AU5">
-        <v>0.74009999999999998</v>
+        <v>0.72270000000000001</v>
       </c>
       <c r="AV5">
-        <v>0.76319999999999999</v>
+        <v>0.77049999999999996</v>
       </c>
       <c r="AW5">
-        <v>0.74370000000000003</v>
+        <v>0.7298</v>
       </c>
       <c r="AX5">
-        <v>0.73380000000000001</v>
+        <v>0.73950000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.66310000000000002</v>
+        <v>0.63849999999999996</v>
       </c>
       <c r="B6">
-        <v>0.59630000000000005</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="C6">
-        <v>0.64510000000000001</v>
+        <v>0.68020000000000003</v>
       </c>
       <c r="D6">
-        <v>0.60019999999999996</v>
+        <v>0.62790000000000001</v>
       </c>
       <c r="E6">
-        <v>0.61980000000000002</v>
+        <v>0.57169999999999999</v>
       </c>
       <c r="F6">
-        <v>0.61</v>
+        <v>0.59850000000000003</v>
       </c>
       <c r="G6">
-        <v>0.56299999999999994</v>
+        <v>0.58620000000000005</v>
       </c>
       <c r="H6">
-        <v>0.60340000000000005</v>
+        <v>0.64059999999999995</v>
       </c>
       <c r="I6">
-        <v>0.63480000000000003</v>
+        <v>0.59919999999999995</v>
       </c>
       <c r="J6">
-        <v>0.60119999999999996</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="K6">
-        <v>0.62849999999999995</v>
+        <v>0.58620000000000005</v>
       </c>
       <c r="L6">
-        <v>0.64129999999999998</v>
+        <v>0.6532</v>
       </c>
       <c r="M6">
-        <v>0.59419999999999995</v>
+        <v>0.61809999999999998</v>
       </c>
       <c r="N6">
-        <v>0.58679999999999999</v>
+        <v>0.60470000000000002</v>
       </c>
       <c r="O6">
-        <v>0.69340000000000002</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="P6">
-        <v>0.57899999999999996</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="Q6">
-        <v>0.57389999999999997</v>
+        <v>0.60009999999999997</v>
       </c>
       <c r="R6">
-        <v>0.64480000000000004</v>
+        <v>0.65439999999999998</v>
       </c>
       <c r="S6">
-        <v>0.65239999999999998</v>
+        <v>0.62050000000000005</v>
       </c>
       <c r="T6">
-        <v>0.65439999999999998</v>
+        <v>0.61070000000000002</v>
       </c>
       <c r="U6">
-        <v>0.65310000000000001</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="V6">
-        <v>0.61729999999999996</v>
+        <v>0.63429999999999997</v>
       </c>
       <c r="W6">
-        <v>0.60850000000000004</v>
+        <v>0.63239999999999996</v>
       </c>
       <c r="X6">
-        <v>0.57989999999999997</v>
+        <v>0.64410000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.62660000000000005</v>
+        <v>0.62829999999999997</v>
       </c>
       <c r="Z6">
-        <v>0.64480000000000004</v>
+        <v>0.61650000000000005</v>
       </c>
       <c r="AA6">
-        <v>0.63119999999999998</v>
+        <v>0.61260000000000003</v>
       </c>
       <c r="AB6">
-        <v>0.61180000000000001</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="AC6">
-        <v>0.64159999999999995</v>
+        <v>0.625</v>
       </c>
       <c r="AD6">
-        <v>0.63449999999999995</v>
+        <v>0.56230000000000002</v>
       </c>
       <c r="AE6">
-        <v>0.61950000000000005</v>
+        <v>0.57220000000000004</v>
       </c>
       <c r="AF6">
-        <v>0.6</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="AG6">
-        <v>0.621</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="AH6">
-        <v>0.58160000000000001</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="AI6">
-        <v>0.60199999999999998</v>
+        <v>0.62819999999999998</v>
       </c>
       <c r="AJ6">
-        <v>0.65339999999999998</v>
+        <v>0.58830000000000005</v>
       </c>
       <c r="AK6">
-        <v>0.57030000000000003</v>
+        <v>0.59109999999999996</v>
       </c>
       <c r="AL6">
-        <v>0.60880000000000001</v>
+        <v>0.65449999999999997</v>
       </c>
       <c r="AM6">
-        <v>0.58889999999999998</v>
+        <v>0.62409999999999999</v>
       </c>
       <c r="AN6">
-        <v>0.5998</v>
+        <v>0.62260000000000004</v>
       </c>
       <c r="AO6">
-        <v>0.60170000000000001</v>
+        <v>0.60770000000000002</v>
       </c>
       <c r="AP6">
-        <v>0.61780000000000002</v>
+        <v>0.60780000000000001</v>
       </c>
       <c r="AQ6">
-        <v>0.65329999999999999</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="AR6">
-        <v>0.62939999999999996</v>
+        <v>0.57620000000000005</v>
       </c>
       <c r="AS6">
-        <v>0.59289999999999998</v>
+        <v>0.57909999999999995</v>
       </c>
       <c r="AT6">
-        <v>0.6452</v>
+        <v>0.66339999999999999</v>
       </c>
       <c r="AU6">
-        <v>0.59</v>
+        <v>0.5887</v>
       </c>
       <c r="AV6">
-        <v>0.68700000000000006</v>
+        <v>0.63129999999999997</v>
       </c>
       <c r="AW6">
-        <v>0.56210000000000004</v>
+        <v>0.64559999999999995</v>
       </c>
       <c r="AX6">
-        <v>0.5837</v>
+        <v>0.64410000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.32700000000000001</v>
+        <v>0.36680000000000001</v>
       </c>
       <c r="B7">
-        <v>0.34200000000000003</v>
+        <v>0.35339999999999999</v>
       </c>
       <c r="C7">
-        <v>0.31690000000000002</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="D7">
-        <v>0.31380000000000002</v>
+        <v>0.3221</v>
       </c>
       <c r="E7">
-        <v>0.32129999999999997</v>
+        <v>0.376</v>
       </c>
       <c r="F7">
-        <v>0.32279999999999998</v>
+        <v>0.29820000000000002</v>
       </c>
       <c r="G7">
-        <v>0.37059999999999998</v>
+        <v>0.35270000000000001</v>
       </c>
       <c r="H7">
-        <v>0.34310000000000002</v>
+        <v>0.29170000000000001</v>
       </c>
       <c r="I7">
-        <v>0.33950000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="J7">
-        <v>0.33510000000000001</v>
+        <v>0.33589999999999998</v>
       </c>
       <c r="K7">
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.32529999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.3427</v>
+      </c>
+      <c r="N7">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.3241</v>
+      </c>
+      <c r="R7">
+        <v>0.3256</v>
+      </c>
+      <c r="S7">
+        <v>0.32329999999999998</v>
+      </c>
+      <c r="T7">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="U7">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="W7">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="X7">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="Y7">
+        <v>0.3417</v>
+      </c>
+      <c r="Z7">
         <v>0.32879999999999998</v>
       </c>
-      <c r="L7">
-        <v>0.32769999999999999</v>
-      </c>
-      <c r="M7">
-        <v>0.313</v>
-      </c>
-      <c r="N7">
-        <v>0.3155</v>
-      </c>
-      <c r="O7">
-        <v>0.33760000000000001</v>
-      </c>
-      <c r="P7">
-        <v>0.32179999999999997</v>
-      </c>
-      <c r="Q7">
-        <v>0.32090000000000002</v>
-      </c>
-      <c r="R7">
-        <v>0.31780000000000003</v>
-      </c>
-      <c r="S7">
-        <v>0.31840000000000002</v>
-      </c>
-      <c r="T7">
-        <v>0.33040000000000003</v>
-      </c>
-      <c r="U7">
-        <v>0.28639999999999999</v>
-      </c>
-      <c r="V7">
-        <v>0.34810000000000002</v>
-      </c>
-      <c r="W7">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="X7">
-        <v>0.33210000000000001</v>
-      </c>
-      <c r="Y7">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="Z7">
-        <v>0.31540000000000001</v>
-      </c>
       <c r="AA7">
-        <v>0.3216</v>
+        <v>0.31929999999999997</v>
       </c>
       <c r="AB7">
-        <v>0.32119999999999999</v>
+        <v>0.36609999999999998</v>
       </c>
       <c r="AC7">
-        <v>0.35020000000000001</v>
+        <v>0.3276</v>
       </c>
       <c r="AD7">
-        <v>0.35630000000000001</v>
+        <v>0.37630000000000002</v>
       </c>
       <c r="AE7">
-        <v>0.32529999999999998</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="AF7">
-        <v>0.31190000000000001</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="AG7">
-        <v>0.33960000000000001</v>
+        <v>0.32040000000000002</v>
       </c>
       <c r="AH7">
-        <v>0.29349999999999998</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.30709999999999998</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="AJ7">
-        <v>0.32250000000000001</v>
+        <v>0.3236</v>
       </c>
       <c r="AK7">
-        <v>0.3296</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="AL7">
-        <v>0.31719999999999998</v>
+        <v>0.31230000000000002</v>
       </c>
       <c r="AM7">
-        <v>0.3236</v>
+        <v>0.29459999999999997</v>
       </c>
       <c r="AN7">
-        <v>0.32519999999999999</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="AO7">
-        <v>0.33629999999999999</v>
+        <v>0.29730000000000001</v>
       </c>
       <c r="AP7">
-        <v>0.33129999999999998</v>
+        <v>0.3327</v>
       </c>
       <c r="AQ7">
-        <v>0.31669999999999998</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="AR7">
-        <v>0.32200000000000001</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="AS7">
-        <v>0.3468</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AT7">
-        <v>0.30830000000000002</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="AU7">
-        <v>0.34370000000000001</v>
+        <v>0.35070000000000001</v>
       </c>
       <c r="AV7">
-        <v>0.30499999999999999</v>
+        <v>0.31790000000000002</v>
       </c>
       <c r="AW7">
-        <v>0.31419999999999998</v>
+        <v>0.3306</v>
       </c>
       <c r="AX7">
-        <v>0.31540000000000001</v>
+        <v>0.31290000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.31019999999999998</v>
+        <v>0.3528</v>
       </c>
       <c r="B8">
-        <v>0.35870000000000002</v>
+        <v>0.33210000000000001</v>
       </c>
       <c r="C8">
-        <v>0.308</v>
+        <v>0.34060000000000001</v>
       </c>
       <c r="D8">
-        <v>0.3105</v>
+        <v>0.3246</v>
       </c>
       <c r="E8">
-        <v>0.32619999999999999</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="F8">
-        <v>0.3478</v>
+        <v>0.29849999999999999</v>
       </c>
       <c r="G8">
-        <v>0.35139999999999999</v>
+        <v>0.3322</v>
       </c>
       <c r="H8">
-        <v>0.34050000000000002</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="I8">
-        <v>0.3402</v>
+        <v>0.3518</v>
       </c>
       <c r="J8">
-        <v>0.31900000000000001</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="K8">
-        <v>0.30590000000000001</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="L8">
-        <v>0.31809999999999999</v>
+        <v>0.32040000000000002</v>
       </c>
       <c r="M8">
-        <v>0.32029999999999997</v>
+        <v>0.34860000000000002</v>
       </c>
       <c r="N8">
-        <v>0.29899999999999999</v>
+        <v>0.307</v>
       </c>
       <c r="O8">
-        <v>0.32690000000000002</v>
+        <v>0.29959999999999998</v>
       </c>
       <c r="P8">
-        <v>0.3251</v>
+        <v>0.3221</v>
       </c>
       <c r="Q8">
-        <v>0.30830000000000002</v>
+        <v>0.3226</v>
       </c>
       <c r="R8">
-        <v>0.31409999999999999</v>
+        <v>0.3049</v>
       </c>
       <c r="S8">
-        <v>0.31</v>
+        <v>0.31530000000000002</v>
       </c>
       <c r="T8">
-        <v>0.3226</v>
+        <v>0.3155</v>
       </c>
       <c r="U8">
-        <v>0.29849999999999999</v>
+        <v>0.30580000000000002</v>
       </c>
       <c r="V8">
-        <v>0.30869999999999997</v>
+        <v>0.32579999999999998</v>
       </c>
       <c r="W8">
-        <v>0.35289999999999999</v>
+        <v>0.29139999999999999</v>
       </c>
       <c r="X8">
-        <v>0.33179999999999998</v>
+        <v>0.35320000000000001</v>
       </c>
       <c r="Y8">
-        <v>0.32800000000000001</v>
+        <v>0.34460000000000002</v>
       </c>
       <c r="Z8">
-        <v>0.31909999999999999</v>
+        <v>0.32419999999999999</v>
       </c>
       <c r="AA8">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="AB8">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="AC8">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="AD8">
+        <v>0.38769999999999999</v>
+      </c>
+      <c r="AE8">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="AG8">
         <v>0.3342</v>
       </c>
-      <c r="AB8">
-        <v>0.29470000000000002</v>
-      </c>
-      <c r="AC8">
-        <v>0.30640000000000001</v>
-      </c>
-      <c r="AD8">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="AE8">
-        <v>0.31690000000000002</v>
-      </c>
-      <c r="AF8">
-        <v>0.32740000000000002</v>
-      </c>
-      <c r="AG8">
-        <v>0.32590000000000002</v>
-      </c>
       <c r="AH8">
-        <v>0.30869999999999997</v>
+        <v>0.30420000000000003</v>
       </c>
       <c r="AI8">
-        <v>0.28620000000000001</v>
+        <v>0.31109999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.31019999999999998</v>
+        <v>0.34350000000000003</v>
       </c>
       <c r="AK8">
-        <v>0.31830000000000003</v>
+        <v>0.31430000000000002</v>
       </c>
       <c r="AL8">
-        <v>0.32319999999999999</v>
+        <v>0.32719999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.32950000000000002</v>
+        <v>0.31080000000000002</v>
       </c>
       <c r="AN8">
-        <v>0.31769999999999998</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="AO8">
-        <v>0.34439999999999998</v>
+        <v>0.30020000000000002</v>
       </c>
       <c r="AP8">
-        <v>0.33789999999999998</v>
+        <v>0.32250000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.30919999999999997</v>
+        <v>0.30359999999999998</v>
       </c>
       <c r="AR8">
-        <v>0.31540000000000001</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="AS8">
-        <v>0.34189999999999998</v>
+        <v>0.33810000000000001</v>
       </c>
       <c r="AT8">
-        <v>0.29530000000000001</v>
+        <v>0.32229999999999998</v>
       </c>
       <c r="AU8">
-        <v>0.3397</v>
+        <v>0.36470000000000002</v>
       </c>
       <c r="AV8">
-        <v>0.27060000000000001</v>
+        <v>0.30509999999999998</v>
       </c>
       <c r="AW8">
-        <v>0.3392</v>
+        <v>0.31090000000000001</v>
       </c>
       <c r="AX8">
-        <v>0.31730000000000003</v>
+        <v>0.30880000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.31380000000000002</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="B9">
-        <v>0.36299999999999999</v>
+        <v>0.3448</v>
       </c>
       <c r="C9">
-        <v>0.31909999999999999</v>
+        <v>0.35110000000000002</v>
       </c>
       <c r="D9">
-        <v>0.32979999999999998</v>
+        <v>0.34470000000000001</v>
       </c>
       <c r="E9">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.30880000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.3453</v>
+      </c>
+      <c r="J9">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="K9">
         <v>0.34960000000000002</v>
       </c>
-      <c r="F9">
-        <v>0.3422</v>
-      </c>
-      <c r="G9">
-        <v>0.37630000000000002</v>
-      </c>
-      <c r="H9">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="I9">
-        <v>0.34810000000000002</v>
-      </c>
-      <c r="J9">
-        <v>0.32240000000000002</v>
-      </c>
-      <c r="K9">
-        <v>0.32679999999999998</v>
-      </c>
       <c r="L9">
-        <v>0.3276</v>
+        <v>0.33179999999999998</v>
       </c>
       <c r="M9">
-        <v>0.33239999999999997</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="N9">
-        <v>0.30840000000000001</v>
+        <v>0.30730000000000002</v>
       </c>
       <c r="O9">
-        <v>0.33279999999999998</v>
+        <v>0.28689999999999999</v>
       </c>
       <c r="P9">
-        <v>0.34770000000000001</v>
+        <v>0.29980000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.31259999999999999</v>
+        <v>0.33179999999999998</v>
       </c>
       <c r="R9">
-        <v>0.32079999999999997</v>
+        <v>0.30740000000000001</v>
       </c>
       <c r="S9">
-        <v>0.3342</v>
+        <v>0.34360000000000002</v>
       </c>
       <c r="T9">
-        <v>0.34289999999999998</v>
+        <v>0.3236</v>
       </c>
       <c r="U9">
-        <v>0.29339999999999999</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="V9">
-        <v>0.32629999999999998</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="W9">
-        <v>0.37369999999999998</v>
+        <v>0.2999</v>
       </c>
       <c r="X9">
-        <v>0.35570000000000002</v>
+        <v>0.36530000000000001</v>
       </c>
       <c r="Y9">
-        <v>0.3508</v>
+        <v>0.35160000000000002</v>
       </c>
       <c r="Z9">
-        <v>0.31719999999999998</v>
+        <v>0.3271</v>
       </c>
       <c r="AA9">
-        <v>0.31950000000000001</v>
+        <v>0.3291</v>
       </c>
       <c r="AB9">
-        <v>0.30249999999999999</v>
+        <v>0.34839999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.30520000000000003</v>
+        <v>0.31269999999999998</v>
       </c>
       <c r="AD9">
-        <v>0.32329999999999998</v>
+        <v>0.39379999999999998</v>
       </c>
       <c r="AE9">
-        <v>0.31929999999999997</v>
+        <v>0.30959999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.32369999999999999</v>
+        <v>0.36670000000000003</v>
       </c>
       <c r="AG9">
-        <v>0.32800000000000001</v>
+        <v>0.33810000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.31490000000000001</v>
+        <v>0.32850000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.2898</v>
+        <v>0.3306</v>
       </c>
       <c r="AJ9">
-        <v>0.31859999999999999</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="AK9">
-        <v>0.32129999999999997</v>
+        <v>0.34189999999999998</v>
       </c>
       <c r="AL9">
-        <v>0.33400000000000002</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="AM9">
+        <v>0.3145</v>
+      </c>
+      <c r="AN9">
+        <v>0.3301</v>
+      </c>
+      <c r="AO9">
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="AP9">
+        <v>0.31969999999999998</v>
+      </c>
+      <c r="AQ9">
+        <v>0.31630000000000003</v>
+      </c>
+      <c r="AR9">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="AS9">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="AT9">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="AU9">
+        <v>0.39850000000000002</v>
+      </c>
+      <c r="AV9">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="AW9">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="AX9">
         <v>0.32590000000000002</v>
-      </c>
-      <c r="AN9">
-        <v>0.3044</v>
-      </c>
-      <c r="AO9">
-        <v>0.35410000000000003</v>
-      </c>
-      <c r="AP9">
-        <v>0.33560000000000001</v>
-      </c>
-      <c r="AQ9">
-        <v>0.31890000000000002</v>
-      </c>
-      <c r="AR9">
-        <v>0.3271</v>
-      </c>
-      <c r="AS9">
-        <v>0.35620000000000002</v>
-      </c>
-      <c r="AT9">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="AU9">
-        <v>0.34089999999999998</v>
-      </c>
-      <c r="AV9">
-        <v>0.30320000000000003</v>
-      </c>
-      <c r="AW9">
-        <v>0.35020000000000001</v>
-      </c>
-      <c r="AX9">
-        <v>0.33179999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.32150000000000001</v>
+        <v>0.36170000000000002</v>
       </c>
       <c r="B10">
-        <v>0.36449999999999999</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="C10">
-        <v>0.34189999999999998</v>
+        <v>0.3569</v>
       </c>
       <c r="D10">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.33810000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.3337</v>
+      </c>
+      <c r="I10">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.37730000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.35930000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="O10">
+        <v>0.2974</v>
+      </c>
+      <c r="P10">
+        <v>0.3332</v>
+      </c>
+      <c r="Q10">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="R10">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="V10">
+        <v>0.3579</v>
+      </c>
+      <c r="W10">
+        <v>0.30309999999999998</v>
+      </c>
+      <c r="X10">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>0.38340000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="AA10">
+        <v>0.3296</v>
+      </c>
+      <c r="AB10">
+        <v>0.3695</v>
+      </c>
+      <c r="AC10">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>0.3972</v>
+      </c>
+      <c r="AE10">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="AF10">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="AG10">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="AH10">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="AI10">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="AJ10">
         <v>0.35020000000000001</v>
       </c>
-      <c r="E10">
-        <v>0.33929999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.34820000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.37080000000000002</v>
-      </c>
-      <c r="H10">
-        <v>0.34670000000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.32050000000000001</v>
-      </c>
-      <c r="J10">
+      <c r="AK10">
         <v>0.32040000000000002</v>
       </c>
-      <c r="K10">
-        <v>0.33879999999999999</v>
-      </c>
-      <c r="L10">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="M10">
-        <v>0.35110000000000002</v>
-      </c>
-      <c r="N10">
-        <v>0.31169999999999998</v>
-      </c>
-      <c r="O10">
-        <v>0.34350000000000003</v>
-      </c>
-      <c r="P10">
-        <v>0.3337</v>
-      </c>
-      <c r="Q10">
-        <v>0.32840000000000003</v>
-      </c>
-      <c r="R10">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="S10">
-        <v>0.3382</v>
-      </c>
-      <c r="T10">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="U10">
-        <v>0.29520000000000002</v>
-      </c>
-      <c r="V10">
-        <v>0.34160000000000001</v>
-      </c>
-      <c r="W10">
-        <v>0.36649999999999999</v>
-      </c>
-      <c r="X10">
-        <v>0.3705</v>
-      </c>
-      <c r="Y10">
-        <v>0.34610000000000002</v>
-      </c>
-      <c r="Z10">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="AA10">
-        <v>0.33889999999999998</v>
-      </c>
-      <c r="AB10">
-        <v>0.31509999999999999</v>
-      </c>
-      <c r="AC10">
-        <v>0.29310000000000003</v>
-      </c>
-      <c r="AD10">
-        <v>0.33629999999999999</v>
-      </c>
-      <c r="AE10">
-        <v>0.32540000000000002</v>
-      </c>
-      <c r="AF10">
-        <v>0.32719999999999999</v>
-      </c>
-      <c r="AG10">
-        <v>0.34129999999999999</v>
-      </c>
-      <c r="AH10">
-        <v>0.32250000000000001</v>
-      </c>
-      <c r="AI10">
-        <v>0.30869999999999997</v>
-      </c>
-      <c r="AJ10">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="AK10">
-        <v>0.33550000000000002</v>
-      </c>
       <c r="AL10">
-        <v>0.36</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="AM10">
-        <v>0.34010000000000001</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="AN10">
-        <v>0.33610000000000001</v>
+        <v>0.3503</v>
       </c>
       <c r="AO10">
-        <v>0.35499999999999998</v>
+        <v>0.34150000000000003</v>
       </c>
       <c r="AP10">
-        <v>0.34410000000000002</v>
+        <v>0.32769999999999999</v>
       </c>
       <c r="AQ10">
-        <v>0.3135</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="AR10">
-        <v>0.33450000000000002</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="AS10">
-        <v>0.34339999999999998</v>
+        <v>0.35339999999999999</v>
       </c>
       <c r="AT10">
-        <v>0.31819999999999998</v>
+        <v>0.33960000000000001</v>
       </c>
       <c r="AU10">
-        <v>0.3574</v>
+        <v>0.41310000000000002</v>
       </c>
       <c r="AV10">
-        <v>0.2843</v>
+        <v>0.3301</v>
       </c>
       <c r="AW10">
-        <v>0.3574</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="AX10">
-        <v>0.3271</v>
+        <v>0.32979999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.32469999999999999</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="B11">
-        <v>0.36670000000000003</v>
+        <v>0.38040000000000002</v>
       </c>
       <c r="C11">
-        <v>0.3503</v>
+        <v>0.37390000000000001</v>
       </c>
       <c r="D11">
-        <v>0.34449999999999997</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="E11">
-        <v>0.3508</v>
+        <v>0.40039999999999998</v>
       </c>
       <c r="F11">
-        <v>0.371</v>
+        <v>0.31769999999999998</v>
       </c>
       <c r="G11">
-        <v>0.40039999999999998</v>
+        <v>0.34649999999999997</v>
       </c>
       <c r="H11">
-        <v>0.3649</v>
+        <v>0.3281</v>
       </c>
       <c r="I11">
-        <v>0.34489999999999998</v>
+        <v>0.36620000000000003</v>
       </c>
       <c r="J11">
-        <v>0.35089999999999999</v>
+        <v>0.35680000000000001</v>
       </c>
       <c r="K11">
-        <v>0.34300000000000003</v>
+        <v>0.3826</v>
       </c>
       <c r="L11">
-        <v>0.34489999999999998</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="M11">
+        <v>0.3634</v>
+      </c>
+      <c r="N11">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="O11">
+        <v>0.31319999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="Q11">
+        <v>0.36320000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="S11">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="T11">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="W11">
+        <v>0.3095</v>
+      </c>
+      <c r="X11">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="Y11">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="Z11">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="AA11">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>0.4194</v>
+      </c>
+      <c r="AE11">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AF11">
+        <v>0.37059999999999998</v>
+      </c>
+      <c r="AG11">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="AH11">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="AI11">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="AK11">
+        <v>0.3306</v>
+      </c>
+      <c r="AL11">
+        <v>0.375</v>
+      </c>
+      <c r="AM11">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="AN11">
+        <v>0.3548</v>
+      </c>
+      <c r="AO11">
         <v>0.35149999999999998</v>
       </c>
-      <c r="N11">
-        <v>0.317</v>
-      </c>
-      <c r="O11">
-        <v>0.3352</v>
-      </c>
-      <c r="P11">
-        <v>0.3528</v>
-      </c>
-      <c r="Q11">
-        <v>0.33779999999999999</v>
-      </c>
-      <c r="R11">
-        <v>0.3553</v>
-      </c>
-      <c r="S11">
-        <v>0.3513</v>
-      </c>
-      <c r="T11">
-        <v>0.3619</v>
-      </c>
-      <c r="U11">
-        <v>0.31669999999999998</v>
-      </c>
-      <c r="V11">
-        <v>0.35460000000000003</v>
-      </c>
-      <c r="W11">
-        <v>0.3916</v>
-      </c>
-      <c r="X11">
-        <v>0.39079999999999998</v>
-      </c>
-      <c r="Y11">
-        <v>0.34949999999999998</v>
-      </c>
-      <c r="Z11">
-        <v>0.3417</v>
-      </c>
-      <c r="AA11">
-        <v>0.34910000000000002</v>
-      </c>
-      <c r="AB11">
-        <v>0.32650000000000001</v>
-      </c>
-      <c r="AC11">
-        <v>0.31580000000000003</v>
-      </c>
-      <c r="AD11">
-        <v>0.34849999999999998</v>
-      </c>
-      <c r="AE11">
-        <v>0.3377</v>
-      </c>
-      <c r="AF11">
-        <v>0.31919999999999998</v>
-      </c>
-      <c r="AG11">
-        <v>0.34739999999999999</v>
-      </c>
-      <c r="AH11">
-        <v>0.3397</v>
-      </c>
-      <c r="AI11">
-        <v>0.3226</v>
-      </c>
-      <c r="AJ11">
-        <v>0.33139999999999997</v>
-      </c>
-      <c r="AK11">
-        <v>0.35170000000000001</v>
-      </c>
-      <c r="AL11">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="AM11">
-        <v>0.35809999999999997</v>
-      </c>
-      <c r="AN11">
-        <v>0.3574</v>
-      </c>
-      <c r="AO11">
-        <v>0.36449999999999999</v>
-      </c>
       <c r="AP11">
-        <v>0.36399999999999999</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="AQ11">
-        <v>0.3337</v>
+        <v>0.3483</v>
       </c>
       <c r="AR11">
-        <v>0.34889999999999999</v>
+        <v>0.3422</v>
       </c>
       <c r="AS11">
-        <v>0.35909999999999997</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="AT11">
-        <v>0.31759999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="AU11">
-        <v>0.36449999999999999</v>
+        <v>0.42849999999999999</v>
       </c>
       <c r="AV11">
-        <v>0.2903</v>
+        <v>0.33169999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.37790000000000001</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="AX11">
-        <v>0.3246</v>
+        <v>0.33539999999999998</v>
       </c>
     </row>
   </sheetData>
